--- a/Manual Testing.xlsx
+++ b/Manual Testing.xlsx
@@ -375,6 +375,42 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -392,42 +428,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -802,117 +802,117 @@
       </c>
     </row>
     <row r="2" spans="1:14" s="3" customFormat="1" ht="87.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="F2" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="G2" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="H2" s="12" t="s">
+      <c r="H2" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="I2" s="12" t="s">
+      <c r="I2" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="J2" s="11" t="s">
+      <c r="J2" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="K2" s="14" t="s">
+      <c r="K2" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="L2" s="11" t="s">
+      <c r="L2" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="M2" s="11" t="s">
+      <c r="M2" s="5" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:14" s="3" customFormat="1" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="5"/>
-      <c r="B3" s="8"/>
-      <c r="C3" s="11" t="s">
+      <c r="A3" s="17"/>
+      <c r="B3" s="20"/>
+      <c r="C3" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="F3" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="G3" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="H3" s="12" t="s">
+      <c r="H3" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="I3" s="12" t="s">
+      <c r="I3" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="J3" s="11" t="s">
+      <c r="J3" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="K3" s="13" t="s">
+      <c r="K3" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="L3" s="11" t="s">
+      <c r="L3" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="M3" s="11" t="s">
+      <c r="M3" s="5" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:14" s="3" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="6"/>
-      <c r="B4" s="9"/>
-      <c r="C4" s="11" t="s">
+      <c r="A4" s="18"/>
+      <c r="B4" s="21"/>
+      <c r="C4" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="D4" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="E4" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="10" t="s">
+      <c r="F4" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="G4" s="10" t="s">
+      <c r="G4" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="H4" s="12" t="s">
+      <c r="H4" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="I4" s="12" t="s">
+      <c r="I4" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="J4" s="11" t="s">
+      <c r="J4" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="K4" s="13" t="s">
+      <c r="K4" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="L4" s="11" t="s">
+      <c r="L4" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="M4" s="11" t="s">
+      <c r="M4" s="5" t="s">
         <v>32</v>
       </c>
     </row>
@@ -934,7 +934,7 @@
   <dimension ref="A1:Z2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -956,107 +956,107 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="91.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="D1" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="E1" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="20" t="s">
+      <c r="F1" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="20" t="s">
+      <c r="G1" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="20" t="s">
+      <c r="H1" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="20" t="s">
+      <c r="I1" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="20" t="s">
+      <c r="J1" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="K1" s="20" t="s">
+      <c r="K1" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="L1" s="20" t="s">
+      <c r="L1" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="20" t="s">
+      <c r="M1" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="N1" s="20" t="s">
+      <c r="N1" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="O1" s="20" t="s">
+      <c r="O1" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="P1" s="19"/>
-      <c r="Q1" s="15"/>
-      <c r="R1" s="15"/>
-      <c r="S1" s="15"/>
-      <c r="T1" s="15"/>
-      <c r="U1" s="15"/>
-      <c r="V1" s="15"/>
-      <c r="W1" s="15"/>
-      <c r="X1" s="15"/>
-      <c r="Y1" s="15"/>
-      <c r="Z1" s="15"/>
+      <c r="P1" s="13"/>
+      <c r="Q1" s="9"/>
+      <c r="R1" s="9"/>
+      <c r="S1" s="9"/>
+      <c r="T1" s="9"/>
+      <c r="U1" s="9"/>
+      <c r="V1" s="9"/>
+      <c r="W1" s="9"/>
+      <c r="X1" s="9"/>
+      <c r="Y1" s="9"/>
+      <c r="Z1" s="9"/>
     </row>
-    <row r="2" spans="1:26" s="16" customFormat="1" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
+    <row r="2" spans="1:26" s="10" customFormat="1" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="17" t="s">
+      <c r="D2" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="18" t="s">
+      <c r="E2" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="F2" s="18" t="s">
+      <c r="F2" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="G2" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="H2" s="12" t="s">
+      <c r="H2" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="I2" s="21" t="s">
+      <c r="I2" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="J2" s="21" t="s">
+      <c r="J2" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="K2" s="21" t="s">
+      <c r="K2" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="L2" s="21" t="s">
+      <c r="L2" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="M2" s="21" t="s">
+      <c r="M2" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="N2" s="21" t="s">
+      <c r="N2" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="O2" s="11"/>
+      <c r="O2" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Manual Testing.xlsx
+++ b/Manual Testing.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Test Cases" sheetId="1" r:id="rId1"/>
@@ -735,8 +735,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N7"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -933,7 +933,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
